--- a/trunk/documentation/WorkMetric.xlsx
+++ b/trunk/documentation/WorkMetric.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="33">
   <si>
     <t>Chris Lockhart</t>
   </si>
@@ -104,12 +104,24 @@
   <si>
     <t>Name</t>
   </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +130,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -145,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -369,12 +397,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="135" wrapText="1"/>
@@ -421,10 +462,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title" xfId="2" builtinId="15"/>
+    <cellStyle name="Total" xfId="3" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -434,62 +481,287 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
+  <c:style val="10"/>
   <c:chart>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:perspective val="30"/>
-    </c:view3D>
     <c:plotArea>
       <c:layout/>
-      <c:pie3DChart>
-        <c:varyColors val="1"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:explosion val="25"/>
-          <c:cat>
+          <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$5:$G$5</c:f>
+              <c:f>Sheet1!$C$64</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Chris Lockhart</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Chris Boyle</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Steven Shofner</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Jason Spruill</c:v>
+                  <c:v>Jason S.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:cat>
-          <c:val>
+          </c:tx>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$D$63:$H$63</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Aug.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sept.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oct.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$32:$G$32</c:f>
+              <c:f>Sheet1!$D$64:$H$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>127</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58</c:v>
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
         </c:ser>
-      </c:pie3DChart>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Steven S.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$D$63:$H$63</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Aug.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sept.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oct.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$65:$H$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Chris B.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$D$63:$H$63</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Aug.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sept.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oct.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$66:$H$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Chris L.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$D$63:$H$63</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Aug.</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sept.</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oct.</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$67:$H$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>159.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>130.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="101421440"/>
+        <c:axId val="101422976"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="101421440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="101422976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="101422976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="101421440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -523,7 +795,7 @@
           <c:explosion val="25"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$5:$N$5</c:f>
+              <c:f>Sheet1!$D$5:$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -543,27 +815,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$32:$N$32</c:f>
+              <c:f>Sheet1!$D$48:$G$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>163.19999999999999</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
       </c:pie3DChart>
+      <c:spPr>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -597,7 +878,7 @@
           <c:explosion val="25"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$R$5:$U$5</c:f>
+              <c:f>Sheet1!$K$5:$N$5</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -617,21 +898,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$32:$U$32</c:f>
+              <c:f>Sheet1!$K$48:$N$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>228.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -657,240 +938,61 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$47</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Jason S.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
+          <c:explosion val="25"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$D$46:$F$46</c:f>
+              <c:f>Sheet1!$R$5:$U$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Aug.</c:v>
+                  <c:v>Chris Lockhart</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Sept.</c:v>
+                  <c:v>Chris Boyle</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Oct.</c:v>
+                  <c:v>Steven Shofner</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Jason Spruill</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$47:$F$47</c:f>
+              <c:f>Sheet1!$R$48:$U$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63</c:v>
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$48</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Steven S.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$D$46:$F$46</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Aug.</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sept.</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Oct.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$48:$F$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>122</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$49</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Chris B.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$D$46:$F$46</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Aug.</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sept.</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Oct.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$49:$F$49</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>97</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$50</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Chris L.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$D$46:$F$46</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Aug.</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Sept.</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Oct.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$50:$F$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>159.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>130.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="47819008"/>
-        <c:axId val="115056640"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="47819008"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115056640"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="115056640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47819008"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
+      </c:pie3DChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -900,7 +1002,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -910,20 +1012,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="10" name="Chart 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -940,20 +1042,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="12" name="Chart 11"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -970,20 +1072,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="13" name="Chart 12"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1000,20 +1102,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="14" name="Chart 13"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1316,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:V50"/>
+  <dimension ref="C4:V67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1330,18 +1432,33 @@
     <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:22">
-      <c r="C4" t="s">
+    <row r="4" spans="3:22" ht="22.5">
+      <c r="C4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="J4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="Q4" s="25" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="3:22" s="1" customFormat="1" ht="52.5">
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+    </row>
+    <row r="5" spans="3:22" s="1" customFormat="1" ht="63">
       <c r="C5" s="11"/>
       <c r="D5" s="12" t="s">
         <v>0</v>
@@ -2611,161 +2728,989 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="3:22">
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32">
-        <f>SUM(D30,D22,D14)</f>
-        <v>127</v>
-      </c>
-      <c r="E32">
-        <f>SUM(E30,E22,E14)</f>
-        <v>108</v>
-      </c>
-      <c r="F32">
-        <f>SUM(F30,F22,F14)</f>
-        <v>110</v>
-      </c>
-      <c r="G32">
-        <f>SUM(G30,G22,G14)</f>
-        <v>58</v>
-      </c>
-      <c r="H32">
-        <f>SUM(H30,H22,H14)</f>
-        <v>403</v>
-      </c>
-      <c r="J32" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32">
-        <f>SUM(K30,K22,K14)</f>
-        <v>163.19999999999999</v>
-      </c>
-      <c r="L32">
-        <f>SUM(L30,L22,L14)</f>
-        <v>96</v>
-      </c>
-      <c r="M32">
-        <f>SUM(M30,M22,M14)</f>
-        <v>55</v>
-      </c>
-      <c r="N32">
-        <f>SUM(N30,N22,N14)</f>
-        <v>55</v>
-      </c>
-      <c r="O32">
-        <f>SUM(O30,O22,O14)</f>
-        <v>369.2</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>5</v>
-      </c>
-      <c r="R32">
-        <f>SUM(R30,R22,R14)</f>
+    <row r="32" spans="3:22" ht="15.75" thickBot="1">
+      <c r="C32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="6"/>
+      <c r="J32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="6"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="6"/>
+      <c r="Q32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="6"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="6"/>
+    </row>
+    <row r="33" spans="3:22" ht="15.75" thickBot="1">
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0</v>
+      </c>
+      <c r="G33" s="10">
+        <v>0</v>
+      </c>
+      <c r="H33" s="9">
+        <f>SUM(D33:G33)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="9">
         <v>20</v>
       </c>
-      <c r="S32">
-        <f>SUM(S30,S22,S14)</f>
+      <c r="L33" s="10">
+        <v>20</v>
+      </c>
+      <c r="M33" s="9">
+        <v>10</v>
+      </c>
+      <c r="N33" s="10">
+        <v>0</v>
+      </c>
+      <c r="O33" s="9">
+        <f>SUM(K33:N33)</f>
+        <v>50</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>11</v>
+      </c>
+      <c r="R33" s="9">
+        <v>0</v>
+      </c>
+      <c r="S33" s="10">
+        <v>0</v>
+      </c>
+      <c r="T33" s="9">
+        <v>1</v>
+      </c>
+      <c r="U33" s="10">
+        <v>1</v>
+      </c>
+      <c r="V33" s="9">
+        <f>SUM(R33:U33)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:22" ht="15.75" thickBot="1">
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0</v>
+      </c>
+      <c r="E34" s="10">
+        <v>0</v>
+      </c>
+      <c r="F34" s="9">
+        <v>0</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0</v>
+      </c>
+      <c r="H34" s="9">
+        <f t="shared" ref="H34:H37" si="9">SUM(D34:G34)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" s="9">
+        <v>20</v>
+      </c>
+      <c r="L34" s="10">
+        <v>15</v>
+      </c>
+      <c r="M34" s="9">
+        <v>0</v>
+      </c>
+      <c r="N34" s="10">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9">
+        <f t="shared" ref="O34:O37" si="10">SUM(K34:N34)</f>
+        <v>35</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>12</v>
+      </c>
+      <c r="R34" s="9">
+        <v>0</v>
+      </c>
+      <c r="S34" s="10">
+        <v>0</v>
+      </c>
+      <c r="T34" s="9">
+        <v>1</v>
+      </c>
+      <c r="U34" s="10">
+        <v>1</v>
+      </c>
+      <c r="V34" s="9">
+        <f t="shared" ref="V34:V37" si="11">SUM(R34:U34)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:22" ht="15.75" thickBot="1">
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0</v>
+      </c>
+      <c r="E35" s="10">
+        <v>0</v>
+      </c>
+      <c r="F35" s="9">
+        <v>0</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0</v>
+      </c>
+      <c r="H35" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0</v>
+      </c>
+      <c r="L35" s="10">
+        <v>0</v>
+      </c>
+      <c r="M35" s="9">
+        <v>0</v>
+      </c>
+      <c r="N35" s="10">
+        <v>15</v>
+      </c>
+      <c r="O35" s="9">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>4</v>
+      </c>
+      <c r="R35" s="9">
+        <v>0</v>
+      </c>
+      <c r="S35" s="10">
+        <v>0</v>
+      </c>
+      <c r="T35" s="9">
+        <v>1</v>
+      </c>
+      <c r="U35" s="10">
+        <v>1</v>
+      </c>
+      <c r="V35" s="9">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:22" ht="15.75" thickBot="1">
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0</v>
+      </c>
+      <c r="E36" s="10">
+        <v>0</v>
+      </c>
+      <c r="F36" s="9">
+        <v>0</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0</v>
+      </c>
+      <c r="H36" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="9">
+        <v>0</v>
+      </c>
+      <c r="L36" s="10">
+        <v>0</v>
+      </c>
+      <c r="M36" s="9">
+        <v>0</v>
+      </c>
+      <c r="N36" s="10">
+        <v>0</v>
+      </c>
+      <c r="O36" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>13</v>
+      </c>
+      <c r="R36" s="9">
+        <v>0</v>
+      </c>
+      <c r="S36" s="10">
+        <v>0</v>
+      </c>
+      <c r="T36" s="9">
+        <v>0</v>
+      </c>
+      <c r="U36" s="10">
+        <v>0</v>
+      </c>
+      <c r="V36" s="9">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:22" ht="15.75" thickBot="1">
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="9">
+        <v>20</v>
+      </c>
+      <c r="E37" s="10">
+        <v>20</v>
+      </c>
+      <c r="F37" s="9">
+        <v>20</v>
+      </c>
+      <c r="G37" s="10">
+        <v>20</v>
+      </c>
+      <c r="H37" s="9">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="J37" t="s">
+        <v>6</v>
+      </c>
+      <c r="K37" s="9">
+        <v>5</v>
+      </c>
+      <c r="L37" s="10">
+        <v>5</v>
+      </c>
+      <c r="M37" s="9">
+        <v>5</v>
+      </c>
+      <c r="N37" s="10">
+        <v>0</v>
+      </c>
+      <c r="O37" s="9">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>6</v>
+      </c>
+      <c r="R37" s="9">
+        <v>0</v>
+      </c>
+      <c r="S37" s="10">
+        <v>0</v>
+      </c>
+      <c r="T37" s="9">
+        <v>1</v>
+      </c>
+      <c r="U37" s="10">
+        <v>1</v>
+      </c>
+      <c r="V37" s="9">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:22" ht="15.75" thickBot="1">
+      <c r="C38" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="9">
+        <f>SUM(D33:D37)</f>
+        <v>20</v>
+      </c>
+      <c r="E38" s="10">
+        <f>SUM(E33:E37)</f>
+        <v>20</v>
+      </c>
+      <c r="F38" s="9">
+        <f>SUM(F33:F37)</f>
+        <v>20</v>
+      </c>
+      <c r="G38" s="10">
+        <f>SUM(G33:G37)</f>
+        <v>20</v>
+      </c>
+      <c r="H38" s="9">
+        <f>SUM(H33:H37)</f>
+        <v>80</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K38" s="9">
+        <f>SUM(K33:K37)</f>
+        <v>45</v>
+      </c>
+      <c r="L38" s="10">
+        <f>SUM(L33:L37)</f>
+        <v>40</v>
+      </c>
+      <c r="M38" s="9">
+        <f>SUM(M33:M37)</f>
+        <v>15</v>
+      </c>
+      <c r="N38" s="10">
+        <f>SUM(N33:N37)</f>
+        <v>15</v>
+      </c>
+      <c r="O38" s="9">
+        <f>SUM(O33:O37)</f>
+        <v>115</v>
+      </c>
+      <c r="Q38" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R38" s="9">
+        <f>SUM(R33:R37)</f>
+        <v>0</v>
+      </c>
+      <c r="S38" s="10">
+        <f>SUM(S33:S37)</f>
+        <v>0</v>
+      </c>
+      <c r="T38" s="9">
+        <f>SUM(T33:T37)</f>
+        <v>4</v>
+      </c>
+      <c r="U38" s="10">
+        <f>SUM(U33:U37)</f>
+        <v>4</v>
+      </c>
+      <c r="V38" s="9">
+        <f>SUM(V33:V37)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="3:22" ht="15.75" thickBot="1">
+      <c r="C40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="6"/>
+      <c r="J40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" s="6"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="6"/>
+      <c r="Q40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R40" s="6"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="6"/>
+    </row>
+    <row r="41" spans="3:22" ht="15.75" thickBot="1">
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="9">
+        <v>0</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0</v>
+      </c>
+      <c r="F41" s="9">
+        <v>0</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0</v>
+      </c>
+      <c r="H41" s="9">
+        <f>SUM(D41:G41)</f>
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="9">
+        <v>10</v>
+      </c>
+      <c r="L41" s="10">
+        <v>5</v>
+      </c>
+      <c r="M41" s="9">
+        <v>0</v>
+      </c>
+      <c r="N41" s="10">
+        <v>5</v>
+      </c>
+      <c r="O41" s="9">
+        <f>SUM(K41:N41)</f>
+        <v>20</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>11</v>
+      </c>
+      <c r="R41" s="9">
+        <v>0</v>
+      </c>
+      <c r="S41" s="10">
+        <v>0</v>
+      </c>
+      <c r="T41" s="9">
+        <v>1</v>
+      </c>
+      <c r="U41" s="10">
+        <v>1</v>
+      </c>
+      <c r="V41" s="9">
+        <f>SUM(R41:U41)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:22" ht="15.75" thickBot="1">
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="9">
+        <v>0</v>
+      </c>
+      <c r="E42" s="10">
+        <v>0</v>
+      </c>
+      <c r="F42" s="9">
+        <v>0</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0</v>
+      </c>
+      <c r="H42" s="9">
+        <f t="shared" ref="H42:H45" si="12">SUM(D42:G42)</f>
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K42" s="9">
+        <v>10</v>
+      </c>
+      <c r="L42" s="10">
+        <v>5</v>
+      </c>
+      <c r="M42" s="9">
+        <v>0</v>
+      </c>
+      <c r="N42" s="10">
+        <v>0</v>
+      </c>
+      <c r="O42" s="9">
+        <f t="shared" ref="O42:O45" si="13">SUM(K42:N42)</f>
+        <v>15</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>12</v>
+      </c>
+      <c r="R42" s="9">
+        <v>0</v>
+      </c>
+      <c r="S42" s="10">
+        <v>0</v>
+      </c>
+      <c r="T42" s="9">
+        <v>1</v>
+      </c>
+      <c r="U42" s="10">
+        <v>1</v>
+      </c>
+      <c r="V42" s="9">
+        <f t="shared" ref="V42:V45" si="14">SUM(R42:U42)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:22" ht="15.75" thickBot="1">
+      <c r="C43" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="9">
+        <v>0</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0</v>
+      </c>
+      <c r="H43" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="9">
+        <v>0</v>
+      </c>
+      <c r="L43" s="10">
+        <v>5</v>
+      </c>
+      <c r="M43" s="9">
+        <v>5</v>
+      </c>
+      <c r="N43" s="10">
+        <v>0</v>
+      </c>
+      <c r="O43" s="9">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="9">
+        <v>0</v>
+      </c>
+      <c r="S43" s="10">
+        <v>0</v>
+      </c>
+      <c r="T43" s="9">
+        <v>1</v>
+      </c>
+      <c r="U43" s="10">
+        <v>1</v>
+      </c>
+      <c r="V43" s="9">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:22" ht="15.75" thickBot="1">
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0</v>
+      </c>
+      <c r="E44" s="10">
+        <v>0</v>
+      </c>
+      <c r="F44" s="9">
+        <v>0</v>
+      </c>
+      <c r="G44" s="10">
+        <v>0</v>
+      </c>
+      <c r="H44" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" s="9">
+        <v>0</v>
+      </c>
+      <c r="L44" s="10">
+        <v>0</v>
+      </c>
+      <c r="M44" s="9">
+        <v>0</v>
+      </c>
+      <c r="N44" s="10">
+        <v>0</v>
+      </c>
+      <c r="O44" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>13</v>
+      </c>
+      <c r="R44" s="9">
+        <v>0</v>
+      </c>
+      <c r="S44" s="10">
+        <v>0</v>
+      </c>
+      <c r="T44" s="9">
+        <v>0</v>
+      </c>
+      <c r="U44" s="10">
+        <v>0</v>
+      </c>
+      <c r="V44" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:22" ht="15.75" thickBot="1">
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="9">
+        <v>10</v>
+      </c>
+      <c r="E45" s="10">
+        <v>10</v>
+      </c>
+      <c r="F45" s="9">
+        <v>10</v>
+      </c>
+      <c r="G45" s="10">
+        <v>10</v>
+      </c>
+      <c r="H45" s="9">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="J45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K45" s="9">
+        <v>0</v>
+      </c>
+      <c r="L45" s="10">
+        <v>5</v>
+      </c>
+      <c r="M45" s="9">
+        <v>0</v>
+      </c>
+      <c r="N45" s="10">
+        <v>0</v>
+      </c>
+      <c r="O45" s="9">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>6</v>
+      </c>
+      <c r="R45" s="9">
+        <v>0</v>
+      </c>
+      <c r="S45" s="10">
+        <v>0</v>
+      </c>
+      <c r="T45" s="9">
+        <v>1</v>
+      </c>
+      <c r="U45" s="10">
+        <v>1</v>
+      </c>
+      <c r="V45" s="9">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:22" ht="15.75" thickBot="1">
+      <c r="C46" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="9">
+        <f>SUM(D41:D45)</f>
+        <v>10</v>
+      </c>
+      <c r="E46" s="10">
+        <f>SUM(E41:E45)</f>
+        <v>10</v>
+      </c>
+      <c r="F46" s="9">
+        <f>SUM(F41:F45)</f>
+        <v>10</v>
+      </c>
+      <c r="G46" s="10">
+        <f>SUM(G41:G45)</f>
+        <v>10</v>
+      </c>
+      <c r="H46" s="9">
+        <f>SUM(H41:H45)</f>
+        <v>40</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="9">
+        <f>SUM(K41:K45)</f>
+        <v>20</v>
+      </c>
+      <c r="L46" s="10">
+        <f>SUM(L41:L45)</f>
+        <v>20</v>
+      </c>
+      <c r="M46" s="9">
+        <f>SUM(M41:M45)</f>
+        <v>5</v>
+      </c>
+      <c r="N46" s="10">
+        <f>SUM(N41:N45)</f>
+        <v>5</v>
+      </c>
+      <c r="O46" s="9">
+        <f>SUM(O41:O45)</f>
+        <v>50</v>
+      </c>
+      <c r="Q46" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="9">
+        <f>SUM(R41:R45)</f>
+        <v>0</v>
+      </c>
+      <c r="S46" s="10">
+        <f>SUM(S41:S45)</f>
+        <v>0</v>
+      </c>
+      <c r="T46" s="9">
+        <f>SUM(T41:T45)</f>
+        <v>4</v>
+      </c>
+      <c r="U46" s="10">
+        <f>SUM(U41:U45)</f>
+        <v>4</v>
+      </c>
+      <c r="V46" s="9">
+        <f>SUM(V41:V45)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="3:22" ht="15.75" thickBot="1">
+      <c r="C48" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="24">
+        <f>SUM(D30,D22,D14,D38,D46)</f>
+        <v>157</v>
+      </c>
+      <c r="E48" s="24">
+        <f t="shared" ref="E48:H48" si="15">SUM(E30,E22,E14,E38,E46)</f>
+        <v>138</v>
+      </c>
+      <c r="F48" s="24">
+        <f t="shared" si="15"/>
+        <v>140</v>
+      </c>
+      <c r="G48" s="24">
+        <f t="shared" si="15"/>
+        <v>88</v>
+      </c>
+      <c r="H48" s="24">
+        <f t="shared" si="15"/>
+        <v>523</v>
+      </c>
+      <c r="J48" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="24">
+        <f>SUM(K30,K22,K14,K38,K46)</f>
+        <v>228.2</v>
+      </c>
+      <c r="L48" s="24">
+        <f t="shared" ref="L48:O48" si="16">SUM(L30,L22,L14,L38,L46)</f>
+        <v>156</v>
+      </c>
+      <c r="M48" s="24">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="N48" s="24">
+        <f t="shared" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="O48" s="24">
+        <f t="shared" si="16"/>
+        <v>534.20000000000005</v>
+      </c>
+      <c r="Q48" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="24">
+        <f>SUM(R30,R22,R14,R38,R46)</f>
+        <v>20</v>
+      </c>
+      <c r="S48" s="24">
+        <f t="shared" ref="S48:V48" si="17">SUM(S30,S22,S14,S38,S46)</f>
         <v>25</v>
       </c>
-      <c r="T32">
-        <f>SUM(T30,T22,T14)</f>
-        <v>10</v>
-      </c>
-      <c r="U32">
-        <f>SUM(U30,U22,U14)</f>
-        <v>10</v>
-      </c>
-      <c r="V32">
-        <f>SUM(V30,V22,V14)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" ht="15.75" thickBot="1"/>
-    <row r="46" spans="3:6">
-      <c r="C46" s="23" t="s">
+      <c r="T48" s="24">
+        <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
+      <c r="U48" s="24">
+        <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
+      <c r="V48" s="24">
+        <f t="shared" si="17"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" ht="15.75" thickTop="1"/>
+    <row r="62" spans="3:8" ht="15.75" thickBot="1"/>
+    <row r="63" spans="3:8">
+      <c r="C63" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="D63" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="E63" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="22" t="s">
+      <c r="F63" s="21" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="47" spans="3:6">
-      <c r="C47" s="15" t="s">
+      <c r="G63" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8">
+      <c r="C64" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D64" s="16">
         <f>SUM(G14,N14,U14)</f>
         <v>10</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E64" s="16">
         <f>SUM(G22,N22,U22)</f>
         <v>50</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F64" s="16">
         <f>SUM(G30,N30,U30)</f>
         <v>63</v>
       </c>
-    </row>
-    <row r="48" spans="3:6">
-      <c r="C48" s="15" t="s">
+      <c r="G64" s="16">
+        <f>SUM(G38,N38,U38)</f>
+        <v>39</v>
+      </c>
+      <c r="H64" s="17">
+        <f>SUM(G46,N46,U46)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8">
+      <c r="C65" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D65" s="16">
         <f>SUM(F14,M14,T14)</f>
         <v>10</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E65" s="16">
         <f>SUM(F22,M22,T22)</f>
         <v>43</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F65" s="16">
         <f>SUM(F30,M30,T30)</f>
         <v>122</v>
       </c>
-    </row>
-    <row r="49" spans="3:6">
-      <c r="C49" s="15" t="s">
+      <c r="G65" s="16">
+        <f>SUM(F38,M38,T38)</f>
+        <v>39</v>
+      </c>
+      <c r="H65" s="17">
+        <f>SUM(F46,M46,T46)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8">
+      <c r="C66" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D66" s="16">
         <f>SUM(E14,L14,S14)</f>
         <v>15</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E66" s="16">
         <f>SUM(E22,L22,S22)</f>
         <v>117</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F66" s="16">
         <f>SUM(E30,L30,S30)</f>
         <v>97</v>
       </c>
-    </row>
-    <row r="50" spans="3:6" ht="15.75" thickBot="1">
-      <c r="C50" s="18" t="s">
+      <c r="G66" s="16">
+        <f>SUM(E38,L38,S38)</f>
+        <v>60</v>
+      </c>
+      <c r="H66" s="17">
+        <f>SUM(E46,L46,S46)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C67" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="19">
+      <c r="D67" s="19">
         <f>SUM(D14,K14,R14)</f>
         <v>20</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E67" s="19">
         <f>SUM(D22,K22,R22)</f>
         <v>159.6</v>
       </c>
-      <c r="F50" s="20">
+      <c r="F67" s="19">
         <f>SUM(D30,K30,R30)</f>
         <v>130.6</v>
       </c>
+      <c r="G67" s="19">
+        <f>SUM(D38,K38,R38)</f>
+        <v>65</v>
+      </c>
+      <c r="H67" s="20">
+        <f>SUM(D46,K46,R46)</f>
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="Q4:V4"/>
+    <mergeCell ref="C4:H4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/trunk/documentation/WorkMetric.xlsx
+++ b/trunk/documentation/WorkMetric.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="37">
   <si>
     <t>Chris Lockhart</t>
   </si>
@@ -116,6 +116,18 @@
   <si>
     <t>December</t>
   </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sept</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
 </sst>
 </file>
 
@@ -415,7 +427,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="135" wrapText="1"/>
@@ -466,6 +478,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
@@ -486,7 +499,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -548,6 +561,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -610,6 +624,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -672,6 +687,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -734,23 +750,24 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="101421440"/>
-        <c:axId val="101422976"/>
+        <c:axId val="97889280"/>
+        <c:axId val="97899264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101421440"/>
+        <c:axId val="97889280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101422976"/>
+        <c:crossAx val="97899264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101422976"/>
+        <c:axId val="97899264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -758,7 +775,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101421440"/>
+        <c:crossAx val="97889280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -771,7 +788,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -854,7 +871,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -928,7 +945,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1002,7 +1019,372 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$75</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Engine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$D$74:$H$74</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sept</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$75:$H$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$76</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Game</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$D$74:$H$74</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sept</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$76:$H$76</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$77</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GUI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$D$74:$H$74</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sept</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$77:$H$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Networking</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$D$74:$H$74</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sept</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$78:$H$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Input</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$D$74:$H$74</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sept</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$79:$H$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="101531008"/>
+        <c:axId val="101529472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="101531008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="101529472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="101529472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="101531008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1125,6 +1507,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1418,10 +1830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:V67"/>
+  <dimension ref="C4:V79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3703,6 +4115,152 @@
       <c r="H67" s="20">
         <f>SUM(D46,K46,R46)</f>
         <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" ht="15.75" thickBot="1"/>
+    <row r="74" spans="3:8">
+      <c r="C74" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8">
+      <c r="C75" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="16">
+        <f>O9</f>
+        <v>0</v>
+      </c>
+      <c r="E75" s="16">
+        <f>O17</f>
+        <v>73.599999999999994</v>
+      </c>
+      <c r="F75" s="16">
+        <f>O25</f>
+        <v>53.6</v>
+      </c>
+      <c r="G75" s="16">
+        <f>O33</f>
+        <v>50</v>
+      </c>
+      <c r="H75" s="17">
+        <f>O41</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8">
+      <c r="C76" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="16">
+        <f t="shared" ref="D76:D79" si="18">O10</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="16">
+        <f t="shared" ref="E76:E79" si="19">O18</f>
+        <v>0</v>
+      </c>
+      <c r="F76" s="16">
+        <f t="shared" ref="F76:F79" si="20">O26</f>
+        <v>31</v>
+      </c>
+      <c r="G76" s="16">
+        <f t="shared" ref="G76:G79" si="21">O34</f>
+        <v>35</v>
+      </c>
+      <c r="H76" s="17">
+        <f t="shared" ref="H76:H79" si="22">O42</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8">
+      <c r="C77" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="16">
+        <f t="shared" si="19"/>
+        <v>32</v>
+      </c>
+      <c r="F77" s="16">
+        <f t="shared" si="20"/>
+        <v>59</v>
+      </c>
+      <c r="G77" s="16">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="H77" s="17">
+        <f t="shared" si="22"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8">
+      <c r="C78" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="16">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="16">
+        <f t="shared" si="19"/>
+        <v>50</v>
+      </c>
+      <c r="F78" s="16">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H78" s="17">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" ht="15.75" thickBot="1">
+      <c r="C79" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" s="19">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="19">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="F79" s="19">
+        <f t="shared" si="20"/>
+        <v>50</v>
+      </c>
+      <c r="G79" s="19">
+        <f t="shared" si="21"/>
+        <v>15</v>
+      </c>
+      <c r="H79" s="20">
+        <f t="shared" si="22"/>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
